--- a/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOGANG\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="465" windowWidth="15735" windowHeight="15285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -19,7 +24,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -33,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -269,16 +274,457 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모의</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여타</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기존</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계확과의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대조</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Github </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숙지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인프런</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, node.js 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, web1 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -381,7 +827,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -415,7 +861,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,6 +873,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -804,30 +1255,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="8" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="6" max="6" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -839,21 +1290,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
-      <c r="A2" s="21"/>
-    </row>
-    <row r="3" spans="1:6" ht="11.85" customHeight="1">
-      <c r="A3" s="20" t="s">
+    <row r="2" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="25.5">
+    <row r="4" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -873,7 +1324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43714</v>
       </c>
@@ -886,246 +1337,282 @@
       <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>100</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="14"/>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>75</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>75</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>100</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="15"/>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="14"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
-      <c r="A22" s="14"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="14"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="17"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="14"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1">
-      <c r="A27" s="14"/>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
-      <c r="A28" s="14"/>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1">
-      <c r="A29" s="14"/>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="17"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="14"/>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1133,7 +1620,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1141,7 +1628,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOGANG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D-105\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -712,6 +712,293 @@
         <charset val="129"/>
       </rPr>
       <t>강</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Use Case Diagram, Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바탕으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재설정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>web1 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>web1 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체지향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개념</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학습</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1263,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1275,7 +1562,7 @@
     <col min="2" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="8" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="54.42578125" customWidth="1"/>
+    <col min="6" max="6" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -1405,38 +1692,86 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>60</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>75</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>120</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>90</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1444,7 +1779,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1474,17 +1809,17 @@
       <c r="C18" s="3"/>
       <c r="D18" s="9"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="9"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1498,7 +1833,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="9"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
@@ -1506,9 +1841,9 @@
       <c r="C22" s="3"/>
       <c r="D22" s="9"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1516,7 +1851,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1524,7 +1859,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1540,7 +1875,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1573,7 +1908,7 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="9"/>
@@ -1617,11 +1952,11 @@
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="9"/>
@@ -1635,6 +1970,14 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D-105\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOGANG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -999,6 +999,276 @@
         <charset val="129"/>
       </rPr>
       <t>학습</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>논의</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바탕으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재설정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>web1 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1006,7 +1276,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -1552,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1753,55 +2023,103 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3">
-        <v>0.33333333333333331</v>
+        <v>0.5625</v>
       </c>
       <c r="C13" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
       </c>
       <c r="E13" s="16">
+        <v>75</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
         <v>90</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="4"/>
-    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>120</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.92986111111111114</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>139</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="D17" s="9">
+        <v>50</v>
+      </c>
+      <c r="E17" s="16">
+        <v>214</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1269,6 +1269,118 @@
         <charset val="129"/>
       </rPr>
       <t>작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case Spec 작성</t>
+  </si>
+  <si>
+    <r>
+      <t>GUI Review, Use Case Spec Review, 핵심</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 로직 논의</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수집</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1281,7 +1393,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1343,6 +1455,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1384,7 +1502,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1435,6 +1553,29 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1820,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2122,30 +2263,66 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27">
+        <v>43745</v>
+      </c>
+      <c r="B18" s="23">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0</v>
+      </c>
+      <c r="E18" s="26">
+        <v>180</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="29">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C19" s="29">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D19" s="31">
+        <v>0</v>
+      </c>
+      <c r="E19" s="32">
+        <v>40</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33">
+        <v>43751</v>
+      </c>
+      <c r="B20" s="29">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C20" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D20" s="31">
+        <v>30</v>
+      </c>
+      <c r="E20" s="32">
+        <v>300</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2159,7 +2336,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="9"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="18"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
@@ -2167,9 +2344,9 @@
       <c r="C23" s="3"/>
       <c r="D23" s="9"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2177,7 +2354,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2185,7 +2362,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2201,7 +2378,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2234,7 +2411,7 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="9"/>
@@ -2278,11 +2455,11 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="9"/>
@@ -2296,6 +2473,14 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1381,6 +1381,121 @@
         <charset val="129"/>
       </rPr>
       <t>수집</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수집을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설문지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1388,7 +1503,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -1502,7 +1617,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1576,6 +1691,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1964,7 +2082,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2283,7 +2401,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="29">
@@ -2323,12 +2441,24 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D21" s="9">
+        <v>43</v>
+      </c>
+      <c r="E21" s="16">
+        <v>240</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOGANG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1496,6 +1496,214 @@
         <charset val="129"/>
       </rPr>
       <t>제작</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설문지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문지 자료 토대로 Initial Data set 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>web1 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>web1 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1503,7 +1711,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -2082,7 +2290,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2461,36 +2669,84 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D22" s="9">
+        <v>20</v>
+      </c>
+      <c r="E22" s="16">
+        <v>150</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="D23" s="9">
+        <v>70</v>
+      </c>
+      <c r="E23" s="16">
+        <v>469</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>120</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.16388888888888889</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>236</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
@@ -1694,7 +1694,7 @@
   </si>
   <si>
     <r>
-      <t>web1 6</t>
+      <t>web1 15</t>
     </r>
     <r>
       <rPr>
@@ -2290,7 +2290,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2736,13 +2736,13 @@
         <v>0.5</v>
       </c>
       <c r="C25" s="3">
-        <v>0.16388888888888889</v>
+        <v>0.22638888888888889</v>
       </c>
       <c r="D25" s="9">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E25" s="16">
-        <v>236</v>
+        <v>326</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>46</v>

--- a/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOGANG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1695,6 +1695,68 @@
   <si>
     <r>
       <t>web1 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>web1 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>node.js 8</t>
     </r>
     <r>
       <rPr>
@@ -2289,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2749,20 +2811,44 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="4"/>
+      <c r="A26" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <v>45</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="4"/>
+      <c r="A27" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="3">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.17430555555555557</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>121</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1757,6 +1757,53 @@
   <si>
     <r>
       <t>node.js 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>node.js 1</t>
     </r>
     <r>
       <rPr>
@@ -1773,7 +1820,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -2352,7 +2399,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2851,12 +2898,24 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="4"/>
+      <c r="A28" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16">
+        <v>7</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1804,6 +1804,100 @@
   <si>
     <r>
       <t>node.js 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SAD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>node.js 3</t>
     </r>
     <r>
       <rPr>
@@ -2399,7 +2493,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2918,20 +3012,44 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="4"/>
+      <c r="A29" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>90</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="4"/>
+      <c r="A30" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>84</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1907,6 +1907,102 @@
         <charset val="129"/>
       </rPr>
       <t>강</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2492,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3052,20 +3148,44 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="4"/>
+      <c r="A31" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>34</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="4"/>
+      <c r="A32" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.68125000000000002</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>98</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2003,6 +2003,53 @@
         <charset val="129"/>
       </rPr>
       <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>node.js 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2010,7 +2057,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -2124,7 +2171,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -2201,6 +2248,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2589,7 +2639,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3188,15 +3238,27 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="4"/>
+      <c r="A33" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>43</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="9"/>
@@ -3204,7 +3266,7 @@
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="9"/>
@@ -3212,7 +3274,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="9"/>
@@ -3220,7 +3282,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="9"/>
@@ -3228,7 +3290,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="9"/>
@@ -3236,7 +3298,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="9"/>
@@ -3244,7 +3306,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="9"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2040,7 +2040,7 @@
   </si>
   <si>
     <r>
-      <t>node.js 5</t>
+      <t>node.js 8</t>
     </r>
     <r>
       <rPr>
@@ -2050,6 +2050,67 @@
         <charset val="129"/>
       </rPr>
       <t>강</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요람</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엑셀작성</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2639,7 +2700,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3245,25 +3306,37 @@
         <v>0.68194444444444446</v>
       </c>
       <c r="C33" s="3">
-        <v>0.71180555555555547</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D33" s="9">
         <v>0</v>
       </c>
       <c r="E33" s="16">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="4"/>
+      <c r="A34" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="3">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>73</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2086,6 +2086,237 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요람</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엑셀작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요람</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엑셀작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해시태그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해시태그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2118,7 +2349,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -2699,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3339,28 +3570,64 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="4"/>
+      <c r="A35" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <v>75</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="4"/>
+      <c r="A36" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.7993055555555556</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>131</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="4"/>
+      <c r="A37" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="D37" s="9">
+        <v>37</v>
+      </c>
+      <c r="E37" s="16">
+        <v>282</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOGANG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\융소종설\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2342,6 +2342,247 @@
         <charset val="129"/>
       </rPr>
       <t>엑셀작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해시태그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요람</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엑셀작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set DB Column </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형태로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2928,10 +3169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3630,28 +3871,92 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="4"/>
+      <c r="A38" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9">
+        <v>92</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="4"/>
+      <c r="A39" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.68611111111111101</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9">
+        <v>89</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="4"/>
+      <c r="A40" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="D40" s="9">
+        <v>50</v>
+      </c>
+      <c r="E40" s="9">
+        <v>159</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="29">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="C41" s="29">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D41" s="31">
+        <v>0</v>
+      </c>
+      <c r="E41" s="31">
+        <v>261</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="35"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_이상우.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\융소종설\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
@@ -24,7 +19,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +33,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2445,144 +2440,37 @@
   </si>
   <si>
     <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Initial Data Set DB Column </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>형태로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Data </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생성</t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> - 개인 요람 생성 및 맞춤과목 리스트 구현</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> - 시간표 데이터 수치화</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2590,12 +2478,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2663,6 +2551,12 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2704,7 +2598,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -2783,8 +2677,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -3161,21 +3056,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
@@ -3184,7 +3079,7 @@
     <col min="6" max="6" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="11.85" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3196,10 +3091,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="11.85" customHeight="1">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="11.85" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
@@ -3209,8 +3104,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="25.5">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3230,7 +3125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="14">
         <v>43714</v>
       </c>
@@ -3250,7 +3145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>11</v>
       </c>
@@ -3270,7 +3165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
@@ -3290,7 +3185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
@@ -3310,7 +3205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
@@ -3330,7 +3225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3350,7 +3245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>18</v>
       </c>
@@ -3370,7 +3265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
@@ -3390,7 +3285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" s="21" t="s">
         <v>22</v>
       </c>
@@ -3410,7 +3305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3430,7 +3325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="21" t="s">
         <v>25</v>
       </c>
@@ -3450,7 +3345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>31</v>
       </c>
@@ -3470,7 +3365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="27">
         <v>43745</v>
       </c>
@@ -3490,7 +3385,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="34" t="s">
         <v>35</v>
       </c>
@@ -3510,7 +3405,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="33">
         <v>43751</v>
       </c>
@@ -3530,7 +3425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="21" t="s">
         <v>37</v>
       </c>
@@ -3550,7 +3445,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="21" t="s">
         <v>39</v>
       </c>
@@ -3570,7 +3465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15" customHeight="1">
       <c r="A23" s="21" t="s">
         <v>41</v>
       </c>
@@ -3590,7 +3485,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="21" t="s">
         <v>43</v>
       </c>
@@ -3610,7 +3505,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="21" t="s">
         <v>45</v>
       </c>
@@ -3630,7 +3525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="21" t="s">
         <v>47</v>
       </c>
@@ -3650,7 +3545,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="21" t="s">
         <v>47</v>
       </c>
@@ -3670,7 +3565,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="21" t="s">
         <v>50</v>
       </c>
@@ -3690,7 +3585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" customHeight="1">
       <c r="A29" s="21" t="s">
         <v>52</v>
       </c>
@@ -3710,7 +3605,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15" customHeight="1">
       <c r="A30" s="21" t="s">
         <v>54</v>
       </c>
@@ -3730,7 +3625,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="21" t="s">
         <v>56</v>
       </c>
@@ -3750,7 +3645,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="21" t="s">
         <v>58</v>
       </c>
@@ -3770,7 +3665,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="21" t="s">
         <v>59</v>
       </c>
@@ -3790,7 +3685,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="21" t="s">
         <v>61</v>
       </c>
@@ -3810,7 +3705,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="21" t="s">
         <v>64</v>
       </c>
@@ -3830,7 +3725,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="21" t="s">
         <v>65</v>
       </c>
@@ -3850,7 +3745,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="21" t="s">
         <v>67</v>
       </c>
@@ -3870,7 +3765,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="21" t="s">
         <v>69</v>
       </c>
@@ -3890,73 +3785,105 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="35" t="s">
+    <row r="39" spans="1:6" ht="15" customHeight="1">
+      <c r="A39" s="14">
+        <v>43804</v>
+      </c>
+      <c r="B39" s="29">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C39" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D39" s="35">
+        <v>0</v>
+      </c>
+      <c r="E39" s="35">
+        <v>210</v>
+      </c>
+      <c r="F39" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="3">
-        <v>0.68611111111111101</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0.74791666666666667</v>
-      </c>
-      <c r="D39" s="9">
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1">
+      <c r="A40" s="14">
+        <v>43805</v>
+      </c>
+      <c r="B40" s="29">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C40" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="D40" s="35">
+        <v>30</v>
+      </c>
+      <c r="E40" s="35">
+        <v>270</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="14">
+        <v>43805</v>
+      </c>
+      <c r="B41" s="29">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C41" s="29">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D41" s="35">
+        <v>30</v>
+      </c>
+      <c r="E41" s="35">
+        <v>180</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="14">
+        <v>43806</v>
+      </c>
+      <c r="B42" s="29">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C42" s="29">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D42" s="35">
         <v>0</v>
       </c>
-      <c r="E39" s="9">
-        <v>89</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="E42" s="35">
+        <v>120</v>
+      </c>
+      <c r="F42" s="36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0.61041666666666672</v>
-      </c>
-      <c r="D40" s="9">
-        <v>50</v>
-      </c>
-      <c r="E40" s="9">
-        <v>159</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="29">
-        <v>0.61041666666666672</v>
-      </c>
-      <c r="C41" s="29">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D41" s="31">
-        <v>0</v>
-      </c>
-      <c r="E41" s="31">
-        <v>261</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="30"/>
+    <row r="43" spans="1:6" ht="13.5">
+      <c r="A43" s="14">
+        <v>43806</v>
+      </c>
+      <c r="B43" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="C43" s="29">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D43" s="35">
+        <v>90</v>
+      </c>
+      <c r="E43" s="35">
+        <v>390</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
